--- a/database/httpswwwczajnikowycompltematyherbata.xlsx
+++ b/database/httpswwwczajnikowycompltematyherbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3025,6 +3025,18 @@
         </is>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/zestaw-ksiazki-yerba-mate-w-tydzien-i-czajnikowy-pl-dobra-herbata/</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> span class="product-title"Zestaw: książki yerba mate w tydzień i czajnikowy.pl dobra herbata</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwczajnikowycompltematyherbata.xlsx
+++ b/database/httpswwwczajnikowycompltematyherbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3037,6 +3037,294 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/herbata-na-bole-menstruacyjne/</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Czy herbata może pomóc przy bólach menstruacyjnych to zagadnienie, które nie tylko powinno zainteresować kobiety.[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/herbata-na-wrzody-zoladka-badania/</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Problem choroby wrzodowej dotyczy co dziesiątego Polaka. Oczywiście nie chodzi tutaj wyłącznie o wrzody żołądka[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/herbata-w-prowincji-zhejiang/</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Prowincja Zhejiang znajduje się na wschodnim wybrzeżu Chin nad Morzem Wschodniochińskim. Jest to jedna z[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/herbata-w-stylu-dziadka-grandpa-style/</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Herbata parzona w „stylu dziadka”, czyli grandpa style, to popularna w Chinach technika parzenia. W[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/herbaty-ciemne-pu-erh-i-hei-cha/</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Wiele osób zapewne już wie, że to co potocznie nazywamy w Polsce herbatą czerwoną jest[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/herbaty-o-nazwach-ktorych-nie-znacie-poradnik/</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Potrafimy nazwać kolory herbaty, choć nie zawsze jest to takie oczywiste i jednoznaczne. Nie sprawia[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/nikotyna-w-herbacie/</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Znane są przypadki, gdy Europejczycy, u zarania swej herbacianej historii, palili herbatę w fajkach jak[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/oryginalna-herbata-po-pakistansku-przepis/</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Mówi się, że podróże kształcą. Można by zatem oczekiwać, że pojechaliśmy do Pakistanu by nauczyć[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/prawdziwa-herbata-po-indyjsku-zrobiona-przez-hinduske/</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Kto z nas nie zna Masala Chai? Narodowa herbata z Indii nie od dziś podbija[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/ksiazka-czajnikowy-pl-dobra-herbata-autor-rafal-przybylok/</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Książka Czajnikowy.pl - dobra herbata, autor: Rafał Przybylok</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/ksiazka-yerba-mate-w-tydzien-autor-rafal-przybylok/</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Książka Yerba mate w tydzień, autor: Rafał Przybylok</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/gaiwan-bialy-do-herbaty-porcelanowy-ahri-100ml/</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Gaiwan biały do herbaty porcelanowy Ahri 100ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/gaiwan-bialy-do-herbaty-porcelanowy-fuhao-120ml/</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Gaiwan biały do herbaty porcelanowy Fuhao 120ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/gaiwan-bialy-do-herbaty-porcelanowy-hehua-120ml/</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Gaiwan biały do herbaty porcelanowy Hehua 120ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czarna-herbata-czysta/herbata-czarna-ceylon-bop1-bezkofeinowa-bez-teiny-50g/</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Herbata czarna Ceylon BOP1 bezkofeinowa. Bez teiny 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czarna-herbata-czysta/herbata-czarna-nepal-ff-juntara-sftgfop1-tippy-jt17-21-50g/</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Herbata czarna Nepal FF Juntara SFTGFOP1 Tippy JT’17/21 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czerwona-herbata-czysta/herbata-czerwona-pu-erh-black-beeng-cha-shu-100g/</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Herbata czerwona pu-erh black beeng cha shu 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-oolong-herbata-czysta/herbata-oolong-taiwan-jade-dong-ding-50g/</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Herbata oolong Taiwan Jade Dong Ding 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-zielona-herbata-czysta/herbata-zielona-box-chun-mee-200g/</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Herbata zielona Box Chun Mee 200g</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-ziolowa-herbata-owocowa-ziolowa/herbata-owocowa-arbuz-z-mieta/</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Herbata owocowa arbuz z miętą 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-ziarnista/kawa-hayb-peru-250g/</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Kawa HAYB Peru 250g bezkofeinowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-ziarnista/kawa-kafar-brazylia-1000g-blend/</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Kawa Kafar Brazylia Blend 1000g</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sprawdzamy-herbaty-miss-ti-matcha-latte-i-milk-tea/</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>W Lidlu pojawiły się dwa napoje herbaciane. Dwie butelki, każda po 500ml i 130 kalorii.[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/yerba-mate-chimarrao-jak-przygotowac-sposoby/</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Chimarrao, czyli drobno zmielona wersja yerba mate rodem z Brazylii zyskuje coraz większą popularność także[...]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwczajnikowycompltematyherbata.xlsx
+++ b/database/httpswwwczajnikowycompltematyherbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3325,6 +3325,30 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-akcesoria/dripper-do-kawy-hario-v60-02-ceramiczny-czarny/</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Dripper do kawy Hario V60-02 ceramiczny czarny</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/wypicie-200-ml-yerba-mate-rownie-grozne-jak-wypalenie-100-papierosow/</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Co pewien czas pojawiają się doniesienia o rakotwórczym działaniu yerba mate. Każde nowe wyniki badań[...]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwczajnikowycompltematyherbata.xlsx
+++ b/database/httpswwwczajnikowycompltematyherbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,6 +3349,42 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-zielona-herbata-czysta/herbata-zielona-2021-sichuan-mao-feng-25g/</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Herbata zielona 2021 Sichuan Mao Feng 25g</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/tematy/herbata/page/70/</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/yerba-mate-selecta-opinie/</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Selecta to stara, paragwajska yerba, która w 2020 roku świętowała swoje siedemdziesięciolecie. Początki Selecty sięgają[...]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwczajnikowycompltematyherbata.xlsx
+++ b/database/httpswwwczajnikowycompltematyherbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3385,6 +3385,1510 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Akcesoria do herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="#main"</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Skip to content</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="#top"</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="http://instagram.com/czajnikowypl"</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="http://twitter.com/czajnikowypl"</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="http://youtube.com/czajnikowypl"</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://facebook.com/czajnikowypl"</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/"</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Główna</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/dla-mediow/"</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Dla mediów</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/dlaczego-kawa-jest-gorzka/"</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Balans smaków jest tym, co cechuje najlepsze kawy. Odpowiednia kompozycja słodyczy, kwasowości i goryczy przyczynia[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbata-na-bole-menstruacyjne/"</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Czy herbata może pomóc przy bólach menstruacyjnych to zagadnienie, które nie tylko powinno zainteresować kobiety.[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbata-na-wrzody-zoladka-badania/"</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Problem choroby wrzodowej dotyczy co dziesiątego Polaka. Oczywiście nie chodzi tutaj wyłącznie o wrzody żołądka[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbata-szkolenia-warsztaty-wyklady-degustacje/"</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Szkolenia, warsztaty, wykłady, degustacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbata-w-prowincji-zhejiang/"</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Prowincja Zhejiang znajduje się na wschodnim wybrzeżu Chin nad Morzem Wschodniochińskim. Jest to jedna z[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbata-w-stylu-dziadka-grandpa-style/"</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Herbata parzona w „stylu dziadka”, czyli grandpa style, to popularna w Chinach technika parzenia. W[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbaty-ciemne-pu-erh-i-hei-cha/"</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Wiele osób zapewne już wie, że to co potocznie nazywamy w Polsce herbatą czerwoną jest[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/herbaty-o-nazwach-ktorych-nie-znacie-poradnik/"</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Potrafimy nazwać kolory herbaty, choć nie zawsze jest to takie oczywiste i jednoznaczne. Nie sprawia[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/kontakt/"</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/koszyk/"</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Koszyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/mapa-tagow/"</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Mapa tagów</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/moje-konto/lost-password/"</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Nie pamiętasz hasła?</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/nikotyna-w-herbacie/"</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Znane są przypadki, gdy Europejczycy, u zarania swej herbacianej historii, palili herbatę w fajkach jak[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/nowa-prawna/"</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nota prawna</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/o-nas/"</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>O nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/opinie-o-zakupach-w-czajnikowy-pl/"</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Opinie o zakupach w Czajnikowy.pl</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/oryginalna-herbata-po-pakistansku-przepis/"</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Mówi się, że podróże kształcą. Można by zatem oczekiwać, że pojechaliśmy do Pakistanu by nauczyć[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/polecamy-herbate/"</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Polecamy</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/polityka-prywatnosci/"</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Polityka prywatności</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/prawdziwa-herbata-po-indyjsku-zrobiona-przez-hinduske/"</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Kto z nas nie zna Masala Chai? Narodowa herbata z Indii nie od dziś podbija[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/dripper-do-kawy/"</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Drippery do kawy</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/filtry-do-kawy/"</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Filtry do kawy</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/herbata-dla-dzieci/"</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Herbata dla dzieci</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/herbata-dla-mam-karmiacych/"</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>herbata dla mam</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/herbata-na-lato/"</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>orzeźwiająca na lato</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/herbata-oczyszczajaca/"</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>herbata oczyszczająca</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/herbata-odchudzajaca/"</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>herbata odchudzająca</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/mlynek-do-kawy/"</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Młynki do kawy</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/rozgrzewajaca-herbata-na-zime/"</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>rozgrzewająca na zimę</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/product-tag/wloska-kawa/"</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Włoska kawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/regulamin/"</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Regulamin sklepu</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy"</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Sklep z herbatą</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/ksiazka-czajnikowy-pl-dobra-herbata-autor-rafal-przybylok/"</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Książka Czajnikowy.pl - dobra herbata, autor: Rafał Przybylok</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/ksiazka-yerba-mate-w-tydzien-autor-rafal-przybylok/"</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Książka Yerba mate w tydzień, autor: Rafał Przybylok</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/gaiwan-bialy-do-herbaty-porcelanowy-ahri-100ml/"</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Gaiwan biały do herbaty porcelanowy Ahri 100ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/gaiwan-bialy-do-herbaty-porcelanowy-fuhao-120ml/"</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Gaiwan biały do herbaty porcelanowy Fuhao 120ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/gaiwan-bialy-do-herbaty-porcelanowy-hehua-120ml/"</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Gaiwan biały do herbaty porcelanowy Hehua 120ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/czajnikowy-outlet/yerba-mate-campesino-anis-anyzowa-500g/"</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Yerba mate Campesino Anis (anyżowa) 500g</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-aromatyzowana-2/herbata-czarna-herbata-aromatyzowana-2/herbata-czarna-earl-grey-imperial/"</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Herbata czarna Earl Grey Imperial 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-aromatyzowana-2/herbata-zielona-herbata-aromatyzowana-2/herbata-zielona-jasminowa-z-kwiatkami/"</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Herbata zielona Jaśminowa z kwiatami 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czarna-herbata-czysta/herbata-czarna-ceylon-bop1-bezkofeinowa-bez-teiny-50g/"</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Herbata czarna Ceylon BOP1 bezkofeinowa. Bez teiny 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czarna-herbata-czysta/herbata-czarna-nepal-ff-juntara-sftgfop1-tippy-jt17-21-50g/"</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Herbata czarna Nepal FF Juntara SFTGFOP1 Tippy JT’17/21 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czerwona-herbata-czysta/herbata-czerwona-pu-erh-black-beeng-cha-shu-100g/"</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Herbata czerwona pu-erh black beeng cha shu 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-oolong-herbata-czysta/herbata-oolong-taiwan-jade-dong-ding-50g/"</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Herbata oolong Taiwan Jade Dong Ding 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-zielona-herbata-czysta/herbata-zielona-box-chun-mee-200g/"</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Herbata zielona Box Chun Mee 200g</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-zielona-herbata-czysta/herbata-zielona-sencha/"</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Herbata zielona Sencha Klasyczna 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-zielona-herbata-czysta/herbata-zielona-zielona-mgla-misty-green/"</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Herbata zielona Zielona Mgła Misty Green 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-owocowa-herbata-owocowa-ziolowa/herbata-owocowa-pomaranczowo-truskawkowa-organiczna-organic/"</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Herbata owocowa pomarańczowo truskawkowa organiczna organic 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-owocowa-herbata-owocowa-ziolowa/herbata-owocowa-red-hot-orange/"</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Herbata owocowa Red Hot Orange 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-owocowa-herbata-owocowa-ziolowa/herbata-owocowa-slodkie-mango/"</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Herbata owocowa Słodkie Mango 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-rooibos-herbata-owocowa-ziolowa/herbata-rooibos-zanzibar/"</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Herbata rooibos Zanzibar 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-ziolowa-herbata-owocowa-ziolowa/herbata-owocowa-arbuz-z-mieta/"</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Herbata owocowa arbuz z miętą 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-akcesoria/dripper-do-kawy-hario-v60-02-ceramiczny-czarny/"</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Dripper do kawy Hario V60-02 ceramiczny czarny</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-akcesoria/dripper-do-kawy-hario-v60-02-kasuya-czarny/"</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Dripper do kawy Hario V60-02 Bloom z filtrami</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-ziarnista/kawa-hayb-peru-250g/"</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Kawa HAYB Peru 250g bezkofeinowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-czajnikowy/kawa/kawa-ziarnista/kawa-kafar-peru-kolumbia/"</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Kawa Kafar Kolumbia 250g</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/akcesoria-do-herbaty/"</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Akcesoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/akcesoria-do-herbaty/czajniki-do-herbaty/"</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Czajniki do herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/akcesoria-do-herbaty/do-herbaty-zielonej-matcha/"</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Do herbaty Matcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/"</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Kubki, filiżanki do herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/akcesoria-do-herbaty/przechowywanie-herbaty-akcesoria-do-herbaty/"</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Przechowywanie herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/akcesoria-do-herbaty/zaparzacze-do-herbaty/"</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Do parzenia herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/czajnikowy-outlet/"</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Outlet</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/do-yerba-mate/bombille-do-yerba-mate/"</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Bombille do Yerba mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/do-yerba-mate/naczynia-do-yerba-mate/"</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Naczynia do Yerba mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-aromatyzowana-2/herbata-biala-herbata-aromatyzowana-2/"</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Herbata biała</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-aromatyzowana-2/herbata-czarna-herbata-aromatyzowana-2/"</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Herbata czarna</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-aromatyzowana-2/herbata-czerwona-herbata-aromatyzowana-2/"</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Herbata czerwona</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-aromatyzowana-2/herbata-oolong-herbata-aromatyzowana-2/"</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Herbata oolong</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-aromatyzowana-2/herbata-zielona-herbata-aromatyzowana-2/"</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Herbata zielona</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Herbata</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/herbata-biala-herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Herbata biała</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/herbata-czarna-herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Herbata czarna</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/herbata-czerwona-herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Herbata czerwona</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/herbata-oolong-herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Herbata oolong</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/herbata-zielona-herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Herbata zielona</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-czysta/herbata-zolta-herbata-czysta/"</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Herbata żółta</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-organiczna/"</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Herbata organiczna</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-owocowa-ziolowa/herbata-honeybush-herbata-owocowa-ziolowa/"</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Herbata honeybush</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-owocowa-ziolowa/herbata-owocowa-herbata-owocowa-ziolowa/"</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Herbata owocowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-owocowa-ziolowa/herbata-rooibos-herbata-owocowa-ziolowa/"</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Herbata rooibos</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-owocowa-ziolowa/herbata-ziolowa-herbata-owocowa-ziolowa/"</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Herbata ziołowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/herbata-zestawy/"</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Zestawy z herbatą</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/kawa/"</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Kawa i akcesoria</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/kawa/kawa-akcesoria/"</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Akcesoria do kawy</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/kawa/polskie-palarnia-specialty/"</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Polskie palarnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/slodycze-z-herbata/"</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Słodycze z herbatą</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/yerba-mate-2/"</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Yerba mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/yerba-mate-2/yerba-mate-aromatyzowana/"</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Yerba mate aromatyzowana</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sklep-z-herbata/yerba-mate-2/yerba-mate-czysta/"</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Yerba mate czysta</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/sprawdzamy-herbaty-miss-ti-matcha-latte-i-milk-tea/"</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>W Lidlu pojawiły się dwa napoje herbaciane. Dwie butelki, każda po 500ml i 130 kalorii.[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/drugie-parzenie/"</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Drugie parzenie</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/herbaciarnie-2/"</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Herbaciarnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/herbata-odchudzajaca/"</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Herbata odchudzająca</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/herbata/"</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Herbata</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/opinie-o-herbacie/"</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Opinie o herbacie</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/parzenie-herbaty1/"</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Parzenie herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/parzenie-yerba-mate/"</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Parzenie yerba mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/wlasciwosci-herbaty/"</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Właściwości herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tag/yerba-mate/"</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Yerba mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/encyklopedia_herbaty/"</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Encyklopedia herbaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/herbata/"</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Herbata</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/herbata/page/2/"</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/herbata/page/3/"</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/herbata/page/4/"</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/herbata/page/70/"</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/kawa/"</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Kawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/odcinki-czajnikowy-tv/"</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Wideo Czajnikowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/porady/"</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Porady</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/przepisy/"</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Przepisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/publikacje/"</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Publikacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/testy/"</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Testy</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/tematy/yerbamate/"</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Yerba Mate</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/wypicie-200-ml-yerba-mate-rownie-grozne-jak-wypalenie-100-papierosow/"</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Co pewien czas pojawiają się doniesienia o rakotwórczym działaniu yerba mate. Każde nowe wyniki badań[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/wysylka-platnosc-za-zakupy-faq/"</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Wysyłka i płatność za zakupy</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/yerba-mate-chimarrao-jak-przygotowac-sposoby/"</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Chimarrao, czyli drobno zmielona wersja yerba mate rodem z Brazylii zyskuje coraz większą popularność także[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/yerba-mate-selecta-opinie/"</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Selecta to stara, paragwajska yerba, która w 2020 roku świętowała swoje siedemdziesięciolecie. Początki Selecty sięgają[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/href="https://www.czajnikowy.com.pl/zielona-herbata-lung-ching-2/"</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Herbata zielona Lung Ching, czyli Smocza Studnia to jedna z najbardziej znanych herbat zielonych na[...]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwczajnikowycompltematyherbata.xlsx
+++ b/database/httpswwwczajnikowycompltematyherbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4889,6 +4889,210 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/jak-uzywac-gaiwana-do-herbaty-poradnik/</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Najpopularniejszym naczyniem herbaciarza jest gaiwan. Można by powiedzieć nawet, że jest to swego rodzaju oznaka[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/jak-wybrac-dobra-matche/</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Matcha to zmielona na proszek herbata zielona, pochodząca z Japonii i tam najpopularniejsza. W zależności[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/jak-zrobic-wlasna-czarna-herbate-poradnik/</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Blendowanie herbaty, czyli mieszanie herbat z różnymi rzeczami jest bardzo powszechne i bardzo niemłode. Jeśli[...]</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/kubek-do-parzenia-herbaty-marlin-niebieski-420ml/</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Kubek do parzenia herbaty Marlin niebieski 420ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/kubek-do-parzenia-herbaty-marlin-pomaranczowy-420ml/</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Kubek do parzenia herbaty Marlin pomarańczowy 420ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/kubek-do-picia-herbaty-hetty-blekitny-300ml/</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Kubek do picia herbaty Hetty błękitny 300ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/kubek-do-picia-herbaty-hetty-rozowy-300ml/</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Kubek do picia herbaty Hetty różowy 300ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/kubki-filizanki-czarki-do-herbaty/szklanka-do-herbaty-podwojne-scianki-220ml/</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Szklanka do herbaty podwójne ścianki 220ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/magazyn-eighty-degrees-numer-07-eng/</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Magazyn eighty degrees numer 07 (ENG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/akcesoria-do-herbaty/magazyn-eighty-degrees-numer-08-eng/</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Magazyn eighty degrees numer 08 (ENG)</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-czarna-herbata-czysta/herbata-czarna-nepal-himalayan-shangri-la-ruby-organiczna-50g/</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Herbata czarna Nepal Himalayan Shangri-La Ruby organiczna 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-czysta/herbata-oolong-herbata-czysta/herbata-oolong-phoenix-50g/</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Herbata oolong Phoenix 50g</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-owocowa-herbata-owocowa-ziolowa/herbata-owocowa-pieczone-jablko-100g/</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Herbata owocowa pieczone jabłko 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/herbata-owocowa-ziolowa/herbata-ziolowa-herbata-owocowa-ziolowa/herbata-ziolowa-grejpfrut-z-pomarancza/</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Herbata ziołowa grejpfrut z pomarańczą 100g</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/yerba-mate-2/yerba-mate-aromatyzowana/yerba-mate-campesino-anis-anyzowa-500g/</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Yerba mate Campesino Anis (anyżowa) 500g</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/sklep-czajnikowy/yerba-mate-2/yerba-mate-czysta/yerba-mate-terra-mate-natural-na-zimno-500g/</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Yerba mate Terra Mate natural (na zimno) 500g</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://www.czajnikowy.com.pl/zbiory-herbaty-w-darjeeling/</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Odkąd Dr. Archibald Campbell zasadził pierwsze krzewy herbaciane w Darjeelingu w roku 1839 do połowy[...]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
